--- a/data/fig1a_reformat.xlsx
+++ b/data/fig1a_reformat.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_and_Ben/Project_5_Hepes_Morris_2013/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/ROS_focused/Project_5_Hepes_Morris_2013/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{473D89C7-34F0-2E4E-8BC7-0FBA65CDC88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0437B5ED-DCAD-0A4F-872C-AADB1E7F4B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="6500" windowWidth="27640" windowHeight="15820" xr2:uid="{CC6E5B0A-DDAF-F14F-A9DD-A267C1FDC565}"/>
+    <workbookView xWindow="120" yWindow="1740" windowWidth="27640" windowHeight="15820" xr2:uid="{CC6E5B0A-DDAF-F14F-A9DD-A267C1FDC565}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -401,10 +401,14 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -419,7 +423,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-6.9110576923076705E-2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.659340659340661</v>
@@ -496,7 +500,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-6.9110576923076705E-2</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0.659340659340661</v>
@@ -573,7 +577,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-6.6535027472527403E-2</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0.98901098901098905</v>
@@ -650,7 +654,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>-6.9110576923076705E-2</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>0.659340659340661</v>

--- a/data/fig1a_reformat.xlsx
+++ b/data/fig1a_reformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/ROS_focused/Project_5_Hepes_Morris_2013/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0437B5ED-DCAD-0A4F-872C-AADB1E7F4B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36159ADD-C24C-BB49-8174-8B68DD6C94C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="1740" windowWidth="27640" windowHeight="15820" xr2:uid="{CC6E5B0A-DDAF-F14F-A9DD-A267C1FDC565}"/>
   </bookViews>
@@ -36,13 +36,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Time (day)</t>
-  </si>
-  <si>
     <t>HOOH (micromolar)</t>
   </si>
   <si>
     <t>treatment (milliMolar)</t>
+  </si>
+  <si>
+    <t>Time (days)</t>
   </si>
 </sst>
 </file>
@@ -400,9 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B4457B-E17A-C849-AFCB-B889894B146F}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -412,13 +410,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
